--- a/excel-files/pseudo_volumes_data.xlsx
+++ b/excel-files/pseudo_volumes_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Shape subvolume</t>
+          <t>Shape volume</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,28 +476,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NLD-AMPH-0008</t>
+          <t>EST-NEMC-0027-RCA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(704, 704, 5)</t>
+          <t>(704, 704, 34)</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>40</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[17 18 19 20 21 22 23 24 25 26 27 28 29 30 31 32 33 34 35 36 37 38 39 40
+ 41 42 43 44 45 46 47 48 49 50]</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -506,28 +509,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NLD-AMPH-0008</t>
+          <t>EST-NEMC-0027-RCA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(704, 704, 5)</t>
+          <t>(704, 704, 37)</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>80</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[134 135 136 137 138 139 140 141 142 143 144 145 146 147 148 149 150 151
+ 152 153 154 155 156 157 158 159 160 161 162 163 164 165 166 167 168 169
+ 170]</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="G3" t="n">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -536,28 +543,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NLD-AMPH-0008</t>
+          <t>EST-NEMC-0027-RCA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(704, 704, 5)</t>
+          <t>(704, 704, 39)</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>120</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[230 231 232 233 234 235 236 237 238 239 240 241 242 243 244 245 246 247
+ 248 249 250 251 252 253 254 255 256 257 258 259 260 261 262 263 264 265
+ 266 267 268]</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="G4" t="n">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -566,28 +577,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NLD-AMPH-0008</t>
+          <t>EST-NEMC-0027-RCx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(704, 704, 5)</t>
+          <t>(704, 704, 30)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>160</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[ 0  1  2  3  4  5  6  7  8  9 10 11 12 13 14 15 16 17 18 19 20 21 22 23
+ 24 25 26 27 28 29]</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +610,234 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NLD-AMPH-0008</t>
+          <t>EST-NEMC-0027-RCx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(704, 704, 5)</t>
+          <t>(704, 704, 47)</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[ 4  5  6  7  8  9 10 11 12 13 14 15 16 17 18 19 20 21 22 23 24 25 26 27
+ 28 29 30 31 32 33 34 35 36 37 38 39 40 41 42 43 44 45 46 47 48 49 50]</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="n">
-        <v>200</v>
-      </c>
-      <c r="F6" t="n">
-        <v>198</v>
-      </c>
-      <c r="G6" t="n">
-        <v>202</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EST-NEMC-0027-RCx</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(704, 704, 41)</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[ 66  67  68  69  70  71  72  73  74  75  76  77  78  79  80  81  82  83
+  84  85  86  87  88  89  90  91  92  93  94  95  96  97  98  99 100 101
+ 102 103 104 105 106]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>66</v>
+      </c>
+      <c r="G7" t="n">
+        <v>106</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EST-NEMC-0027-RCx</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>(704, 704, 45)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[ 86  87  88  89  90  91  92  93  94  95  96  97  98  99 100 101 102 103
+ 104 105 106 107 108 109 110 111 112 113 114 115 116 117 118 119 120 121
+ 122 123 124 125 126 127 128 129 130]</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>130</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EST-NEMC-0027-RCx</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>(704, 704, 30)</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[141 142 143 144 145 146 147 148 149 150 151 152 153 154 155 156 157 158
+ 159 160 161 162 163 164 165 166 167 168 169 170]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>141</v>
+      </c>
+      <c r="G9" t="n">
+        <v>170</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EST-NEMC-0027-RCx</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>(704, 704, 61)</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[190 191 192 193 194 195 196 197 198 199 200 201 202 203 204 205 206 207
+ 208 209 210 211 212 213 214 215 216 217 218 219 220 221 222 223 224 225
+ 226 227 228 229 230 231 232 233 234 235 236 237 238 239 240 241 242 243
+ 244 245 246 247 248 249 250]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>190</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NLD-AMPH-0003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(704, 704, 32)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[310 311 312 313 314 315 316 317 318 319 320 321 322 323 324 325 326 327
+ 328 329 330 331 332 333 334 335 336 337 338 339 340 341]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>310</v>
+      </c>
+      <c r="G11" t="n">
+        <v>341</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NLD-AMPH-0003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>(704, 704, 50)</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[321 322 323 324 325 326 327 328 329 330 331 332 333 334 335 336 337 338
+ 339 340 341 342 343 344 345 346 347 348 349 350 351 352 353 354 355 356
+ 357 358 359 360 361 362 363 364 365 366 367 368 369 370]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>321</v>
+      </c>
+      <c r="G12" t="n">
+        <v>370</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
